--- a/stat_tests/ya_blocktarget_data.xlsx
+++ b/stat_tests/ya_blocktarget_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebassil/Documents/Emory/3_Research/Projects/NavAging_Paper/stat_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{50A78CAE-7189-5A43-8C7C-AAD3AD6B9475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F971B026-6EBC-F04B-93BE-EB904ADB408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ya_blocktarget_data" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1102,9 +1102,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1153,6 +1152,16 @@
   <dxfs count="6">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1178,16 +1187,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1520,16 +1519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="L160" sqref="L160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1880,7 +1879,7 @@
       <c r="G11">
         <v>5.0833546688232998</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>1.48581376935297E-6</v>
       </c>
       <c r="I11">
@@ -1913,7 +1912,7 @@
       <c r="G12">
         <v>6.8347626867685598</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>5.2064041966559702E-10</v>
       </c>
       <c r="I12">
@@ -2177,7 +2176,7 @@
       <c r="G20">
         <v>6.7958723296778096</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>5.3801241239881403E-10</v>
       </c>
       <c r="I20">
@@ -2210,7 +2209,7 @@
       <c r="G21">
         <v>7.3258099874227902</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>4.6206860560005199E-10</v>
       </c>
       <c r="I21">
@@ -2672,7 +2671,7 @@
       <c r="G35">
         <v>4.5467073811614496</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>1.9647051518356699E-5</v>
       </c>
       <c r="I35">
@@ -2705,7 +2704,7 @@
       <c r="G36">
         <v>6.5929531918349902</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>7.4422346063585099E-10</v>
       </c>
       <c r="I36">
@@ -2969,7 +2968,7 @@
       <c r="G44">
         <v>5.9942530150764499</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>1.1060143800811801E-8</v>
       </c>
       <c r="I44">
@@ -3002,7 +3001,7 @@
       <c r="G45">
         <v>6.1558171510140198</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>4.5673245185895398E-9</v>
       </c>
       <c r="I45">
@@ -3167,7 +3166,7 @@
       <c r="G50">
         <v>13.342250287568399</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>4.5973125306630901E-10</v>
       </c>
       <c r="I50">
@@ -3200,7 +3199,7 @@
       <c r="G51">
         <v>17.2890260906068</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>4.5973125306630901E-10</v>
       </c>
       <c r="I51">
@@ -3266,7 +3265,7 @@
       <c r="G53">
         <v>7.6846178348284502</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>4.5994408282013002E-10</v>
       </c>
       <c r="I53">
@@ -3299,7 +3298,7 @@
       <c r="G54">
         <v>8.8907635489072696</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>4.5975667717357298E-10</v>
       </c>
       <c r="I54">
@@ -3398,7 +3397,7 @@
       <c r="G57">
         <v>5.4480395007697098</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>2.2359913387504099E-7</v>
       </c>
       <c r="I57">
@@ -3464,7 +3463,7 @@
       <c r="G59">
         <v>5.2359351006371204</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>6.8175698453298797E-7</v>
       </c>
       <c r="I59">
@@ -3497,7 +3496,7 @@
       <c r="G60">
         <v>6.9103093721767603</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>4.9701975868288204E-10</v>
       </c>
       <c r="I60">
@@ -3596,7 +3595,7 @@
       <c r="G63">
         <v>4.7668694091578496</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>7.0202694859578E-6</v>
       </c>
       <c r="I63">
@@ -3662,7 +3661,7 @@
       <c r="G65">
         <v>4.4707670456256698</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>2.77449126148133E-5</v>
       </c>
       <c r="I65">
@@ -3695,7 +3694,7 @@
       <c r="G66">
         <v>7.1084070399828203</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>4.6982706614073798E-10</v>
       </c>
       <c r="I66">
@@ -3761,7 +3760,7 @@
       <c r="G68">
         <v>4.7919247211991296</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>6.2277095573826102E-6</v>
       </c>
       <c r="I68">
@@ -3794,7 +3793,7 @@
       <c r="G69">
         <v>6.1431387398788502</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>4.88794693609407E-9</v>
       </c>
       <c r="I69">
@@ -4256,7 +4255,7 @@
       <c r="G83">
         <v>4.9774030092832602</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83">
         <v>2.52279682722012E-6</v>
       </c>
       <c r="I83">
@@ -4289,7 +4288,7 @@
       <c r="G84">
         <v>6.6893849933820198</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84">
         <v>6.1442551047008496E-10</v>
       </c>
       <c r="I84">
@@ -4553,7 +4552,7 @@
       <c r="G92">
         <v>6.4432652622703204</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92">
         <v>1.18172316376786E-9</v>
       </c>
       <c r="I92">
@@ -4586,7 +4585,7 @@
       <c r="G93">
         <v>6.9217539085650097</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93">
         <v>4.9433557247624497E-10</v>
       </c>
       <c r="I93">
@@ -4751,7 +4750,7 @@
       <c r="G98">
         <v>7.1181237532186001</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98">
         <v>4.6919379492749199E-10</v>
       </c>
       <c r="I98">
@@ -4784,7 +4783,7 @@
       <c r="G99">
         <v>10.1568793329833</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99">
         <v>4.5975889761962202E-10</v>
       </c>
       <c r="I99">
@@ -4850,7 +4849,7 @@
       <c r="G101">
         <v>4.3695843986587501</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101">
         <v>4.3596850375693399E-5</v>
       </c>
       <c r="I101">
@@ -4883,7 +4882,7 @@
       <c r="G102">
         <v>4.8258163041472004</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102">
         <v>5.2915094630456798E-6</v>
       </c>
       <c r="I102">
@@ -5345,7 +5344,7 @@
       <c r="G116">
         <v>6.5161620777048403</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116">
         <v>9.1947782721035796E-10</v>
       </c>
       <c r="I116">
@@ -5378,7 +5377,7 @@
       <c r="G117">
         <v>7.4404531084745003</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117">
         <v>4.6080383953039901E-10</v>
       </c>
       <c r="I117">
@@ -5576,7 +5575,7 @@
       <c r="G123">
         <v>-5.32126228427353</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123">
         <v>4.37279940701529E-7</v>
       </c>
       <c r="I123">
@@ -5675,7 +5674,7 @@
       <c r="G126">
         <v>-6.9142753006313198</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126">
         <v>4.9606718732775303E-10</v>
       </c>
       <c r="I126">
@@ -5741,7 +5740,7 @@
       <c r="G128">
         <v>-4.4700113231613701</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128">
         <v>2.7839656054684501E-5</v>
       </c>
       <c r="I128">
@@ -5774,7 +5773,7 @@
       <c r="G129">
         <v>-7.1860548329678497</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129">
         <v>4.6573678247341398E-10</v>
       </c>
       <c r="I129">
@@ -5873,7 +5872,7 @@
       <c r="G132">
         <v>-9.0090873824027593</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132">
         <v>4.59759008641925E-10</v>
       </c>
       <c r="I132">
@@ -5906,7 +5905,7 @@
       <c r="G133">
         <v>-4.8526679375468103</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133">
         <v>4.6475141644020104E-6</v>
       </c>
       <c r="I133">
@@ -6071,7 +6070,7 @@
       <c r="G138">
         <v>-6.2292391166455596</v>
       </c>
-      <c r="H138" s="1">
+      <c r="H138">
         <v>3.1110022336022801E-9</v>
       </c>
       <c r="I138">
@@ -6137,7 +6136,7 @@
       <c r="G140">
         <v>-5.4910730321718102</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H140">
         <v>1.77560625980178E-7</v>
       </c>
       <c r="I140">
@@ -6170,7 +6169,7 @@
       <c r="G141">
         <v>-7.2780666800465799</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H141">
         <v>4.62961002867246E-10</v>
       </c>
       <c r="I141">
@@ -6269,7 +6268,7 @@
       <c r="G144">
         <v>-5.5894261946347203</v>
       </c>
-      <c r="H144" s="1">
+      <c r="H144">
         <v>1.04293113478704E-7</v>
       </c>
       <c r="I144">
@@ -6665,7 +6664,7 @@
       <c r="G156">
         <v>5.9944589556217496</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H156">
         <v>1.1047484038684301E-8</v>
       </c>
       <c r="I156">
@@ -6929,7 +6928,7 @@
       <c r="G164">
         <v>6.2086764470703804</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H164">
         <v>3.4581532082356098E-9</v>
       </c>
       <c r="I164">
@@ -6962,7 +6961,7 @@
       <c r="G165">
         <v>6.3539086446626696</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H165">
         <v>1.7080197256547099E-9</v>
       </c>
       <c r="I165">
@@ -7107,16 +7106,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>0.05</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>0.01</formula>
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0.01</formula>
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>0.05</formula>
+      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
